--- a/context/拍卖手册.xlsx
+++ b/context/拍卖手册.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pareedo\gugu\gugu2\context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B622B-4F41-42FA-B0F5-3FC48D2C27C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5691A8-7C25-4CA0-B0C0-00CB06874BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>环号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,13 +538,19 @@
   </si>
   <si>
     <t>不怎么样的赛鸽122204</t>
+  </si>
+  <si>
+    <t>2025-06-0100392</t>
+  </si>
+  <si>
+    <t>不怎么样的赛鸽122205</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +564,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,11 +593,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -865,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,6 +1571,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
